--- a/po_analysis_by_asin/B083NPKL1C_po_data.xlsx
+++ b/po_analysis_by_asin/B083NPKL1C_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,22 +546,6 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45123.99999999999</v>
-      </c>
-      <c r="B14" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45130.99999999999</v>
-      </c>
-      <c r="B15" t="n">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -573,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,14 +609,6 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45138.99999999999</v>
-      </c>
-      <c r="B6" t="n">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B083NPKL1C_po_data.xlsx
+++ b/po_analysis_by_asin/B083NPKL1C_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -573,7 +574,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -607,6 +608,327 @@
       </c>
       <c r="B5" t="n">
         <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-71.52732936279892</v>
+      </c>
+      <c r="D2" t="n">
+        <v>81.57901332119063</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-69.65983246495878</v>
+      </c>
+      <c r="D3" t="n">
+        <v>83.6661439097679</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>39</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-39.27716789016991</v>
+      </c>
+      <c r="D4" t="n">
+        <v>118.4146625590858</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>46</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-33.68311015610893</v>
+      </c>
+      <c r="D5" t="n">
+        <v>132.421190023514</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>49</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-33.0437455797012</v>
+      </c>
+      <c r="D6" t="n">
+        <v>130.4462576715427</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>52</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-24.48763344372699</v>
+      </c>
+      <c r="D7" t="n">
+        <v>123.6337591207963</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>54</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-23.21352184387557</v>
+      </c>
+      <c r="D8" t="n">
+        <v>131.4593001899384</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>57</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-17.9932700435963</v>
+      </c>
+      <c r="D9" t="n">
+        <v>130.4663422858428</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>59</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-18.14776672689942</v>
+      </c>
+      <c r="D10" t="n">
+        <v>136.6141204535682</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>62</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-11.68031317542973</v>
+      </c>
+      <c r="D11" t="n">
+        <v>143.5526410627554</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>64</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-21.66772883788403</v>
+      </c>
+      <c r="D12" t="n">
+        <v>135.6164550517646</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>67</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-14.54379261267863</v>
+      </c>
+      <c r="D13" t="n">
+        <v>150.2134779727839</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>69</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-12.76100056703338</v>
+      </c>
+      <c r="D14" t="n">
+        <v>142.936853169842</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>72</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-7.148753782293134</v>
+      </c>
+      <c r="D15" t="n">
+        <v>148.7693921095256</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>74</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-7.481391958858327</v>
+      </c>
+      <c r="D16" t="n">
+        <v>148.4988804990359</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>77</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.118576653764385</v>
+      </c>
+      <c r="D17" t="n">
+        <v>152.4322436699244</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>79</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.76668045760222</v>
+      </c>
+      <c r="D18" t="n">
+        <v>159.0997649799733</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>82</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2192060650645955</v>
+      </c>
+      <c r="D19" t="n">
+        <v>159.7801900108355</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>84</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.224567201983735</v>
+      </c>
+      <c r="D20" t="n">
+        <v>159.8146617598035</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>87</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10.02860370561712</v>
+      </c>
+      <c r="D21" t="n">
+        <v>171.2715769230483</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083NPKL1C_po_data.xlsx
+++ b/po_analysis_by_asin/B083NPKL1C_po_data.xlsx
@@ -621,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,16 +640,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -658,12 +648,6 @@
       <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>-71.52732936279892</v>
-      </c>
-      <c r="D2" t="n">
-        <v>81.57901332119063</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -672,12 +656,6 @@
       <c r="B3" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
-        <v>-69.65983246495878</v>
-      </c>
-      <c r="D3" t="n">
-        <v>83.6661439097679</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -686,12 +664,6 @@
       <c r="B4" t="n">
         <v>39</v>
       </c>
-      <c r="C4" t="n">
-        <v>-39.27716789016991</v>
-      </c>
-      <c r="D4" t="n">
-        <v>118.4146625590858</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -700,12 +672,6 @@
       <c r="B5" t="n">
         <v>46</v>
       </c>
-      <c r="C5" t="n">
-        <v>-33.68311015610893</v>
-      </c>
-      <c r="D5" t="n">
-        <v>132.421190023514</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -714,12 +680,6 @@
       <c r="B6" t="n">
         <v>49</v>
       </c>
-      <c r="C6" t="n">
-        <v>-33.0437455797012</v>
-      </c>
-      <c r="D6" t="n">
-        <v>130.4462576715427</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -728,12 +688,6 @@
       <c r="B7" t="n">
         <v>52</v>
       </c>
-      <c r="C7" t="n">
-        <v>-24.48763344372699</v>
-      </c>
-      <c r="D7" t="n">
-        <v>123.6337591207963</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -742,12 +696,6 @@
       <c r="B8" t="n">
         <v>54</v>
       </c>
-      <c r="C8" t="n">
-        <v>-23.21352184387557</v>
-      </c>
-      <c r="D8" t="n">
-        <v>131.4593001899384</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -756,12 +704,6 @@
       <c r="B9" t="n">
         <v>57</v>
       </c>
-      <c r="C9" t="n">
-        <v>-17.9932700435963</v>
-      </c>
-      <c r="D9" t="n">
-        <v>130.4663422858428</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -770,12 +712,6 @@
       <c r="B10" t="n">
         <v>59</v>
       </c>
-      <c r="C10" t="n">
-        <v>-18.14776672689942</v>
-      </c>
-      <c r="D10" t="n">
-        <v>136.6141204535682</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -784,12 +720,6 @@
       <c r="B11" t="n">
         <v>62</v>
       </c>
-      <c r="C11" t="n">
-        <v>-11.68031317542973</v>
-      </c>
-      <c r="D11" t="n">
-        <v>143.5526410627554</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -798,12 +728,6 @@
       <c r="B12" t="n">
         <v>64</v>
       </c>
-      <c r="C12" t="n">
-        <v>-21.66772883788403</v>
-      </c>
-      <c r="D12" t="n">
-        <v>135.6164550517646</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -812,12 +736,6 @@
       <c r="B13" t="n">
         <v>67</v>
       </c>
-      <c r="C13" t="n">
-        <v>-14.54379261267863</v>
-      </c>
-      <c r="D13" t="n">
-        <v>150.2134779727839</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -826,12 +744,6 @@
       <c r="B14" t="n">
         <v>69</v>
       </c>
-      <c r="C14" t="n">
-        <v>-12.76100056703338</v>
-      </c>
-      <c r="D14" t="n">
-        <v>142.936853169842</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -840,12 +752,6 @@
       <c r="B15" t="n">
         <v>72</v>
       </c>
-      <c r="C15" t="n">
-        <v>-7.148753782293134</v>
-      </c>
-      <c r="D15" t="n">
-        <v>148.7693921095256</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -854,12 +760,6 @@
       <c r="B16" t="n">
         <v>74</v>
       </c>
-      <c r="C16" t="n">
-        <v>-7.481391958858327</v>
-      </c>
-      <c r="D16" t="n">
-        <v>148.4988804990359</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -868,12 +768,6 @@
       <c r="B17" t="n">
         <v>77</v>
       </c>
-      <c r="C17" t="n">
-        <v>-2.118576653764385</v>
-      </c>
-      <c r="D17" t="n">
-        <v>152.4322436699244</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -882,12 +776,6 @@
       <c r="B18" t="n">
         <v>79</v>
       </c>
-      <c r="C18" t="n">
-        <v>1.76668045760222</v>
-      </c>
-      <c r="D18" t="n">
-        <v>159.0997649799733</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -896,12 +784,6 @@
       <c r="B19" t="n">
         <v>82</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.2192060650645955</v>
-      </c>
-      <c r="D19" t="n">
-        <v>159.7801900108355</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -910,12 +792,6 @@
       <c r="B20" t="n">
         <v>84</v>
       </c>
-      <c r="C20" t="n">
-        <v>2.224567201983735</v>
-      </c>
-      <c r="D20" t="n">
-        <v>159.8146617598035</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -923,12 +799,6 @@
       </c>
       <c r="B21" t="n">
         <v>87</v>
-      </c>
-      <c r="C21" t="n">
-        <v>10.02860370561712</v>
-      </c>
-      <c r="D21" t="n">
-        <v>171.2715769230483</v>
       </c>
     </row>
   </sheetData>
